--- a/sin_plot.xlsx
+++ b/sin_plot.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <fileSharing readOnlyRecommended="0" userName="Administrator"/>
+  <fileSharing readOnlyRecommended="0" userName="taifu"/>
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1608801138" val="1024" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1608801138" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1608801138"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1608801138"/>
+      <pm:revision xmlns:pm="smNativeData" day="1608930590" val="1024" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1608930590" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1608930590"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1608930590"/>
     </ext>
   </extLst>
 </workbook>
@@ -51,11 +51,12 @@
   <fonts count="1">
     <font>
       <name val="Arial"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608801138" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1608930590" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -88,7 +89,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608801138"/>
+          <pm:border xmlns:pm="smNativeData" id="1608930590"/>
         </ext>
       </extLst>
     </border>
@@ -105,7 +106,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1608801138" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1608930590" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -1789,7 +1790,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="ja-jp" sz="2060" b="0" i="0" u="none" strike="noStrike">
+        <a:defRPr lang="ja-jp" sz="1640" b="0" i="0" u="none" strike="noStrike">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1800,7 +1801,7 @@
   </c:txPr>
   <c:extLst>
     <c:ext xmlns:sm="smo" uri="smo">
-      <sm:colorScheme xmlns:sm="smo" id="1608801138" val="7"/>
+      <sm:colorScheme xmlns:sm="smo" id="1608930590" val="7"/>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -1811,15 +1812,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>56515</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:rowOff>36830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,7 +2101,8 @@
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -3454,7 +3456,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1608801138" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1608930590" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3463,17 +3465,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1608801138" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1608801138" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608801138" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608801138" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1608930590" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1608930590" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1608930590" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1608930590" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608801138" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608930590" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
